--- a/data/financial_statements/sofp/LMT.xlsx
+++ b/data/financial_statements/sofp/LMT.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,1785 +593,1824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>2547000000</v>
+      </c>
+      <c r="C2">
         <v>2430000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1775000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1883000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3604000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2727000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2745000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2933000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3160000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3585000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2855000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1988000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1514000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2539000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1167000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>991000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>772000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>897000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1181000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2393000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2861000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>2941000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2452000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2216000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1837000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2895000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1269000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1452000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1090000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3300000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3202000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3486000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1446000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2963000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3436000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3264000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>2617000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>2661000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>2845000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3065000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>2505000000</v>
+      </c>
+      <c r="C3">
         <v>2484000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3401000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2527000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1963000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2267000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2611000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2214000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1978000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2480000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2835000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2892000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2337000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2384000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2546000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2833000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2444000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2416000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2482000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2373000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2265000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>9021000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>8762000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>8869000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>8202000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>8955000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>9275000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>8620000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>7254000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>6740000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>7064000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>6545000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>5877000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>6081000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>6434000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>6255000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>5834000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>6919000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>6826000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>6968000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3088000000</v>
+      </c>
+      <c r="C4">
         <v>3113000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3431000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3144000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2981000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2903000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3119000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3256000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3545000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3293000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3521000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3539000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3619000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3474000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3599000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3285000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2997000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3050000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>3038000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3196000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2878000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>4803000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>4941000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5074000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>4670000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>4852000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>5136000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>5223000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>4819000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>3237000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3032000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3087000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2804000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2898000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2646000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2949000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2977000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2920000000</v>
-      </c>
-      <c r="AM4">
-        <v>2895000000</v>
       </c>
       <c r="AN4">
         <v>2895000000</v>
       </c>
+      <c r="AO4">
+        <v>2895000000</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>12851000000</v>
+      </c>
+      <c r="C5">
         <v>12933000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>12366000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>12836000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>11267000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>13460000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>12199000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>11849000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>10695000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>10932000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>10359000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>10803000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>9625000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>11406000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>10788000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>10922000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>9890000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>10496000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>9803000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>9854000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>9501000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>443000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>411000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>427000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>399000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>408000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>393000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>472000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>441000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>515000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>520000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>632000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>744000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>559000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>494000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>631000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>813000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>452000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>580000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>683000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>20991000000</v>
+      </c>
+      <c r="C6">
         <v>20960000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>20973000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>20390000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>19815000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>21357000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>20674000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>20252000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>19378000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>20290000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>19570000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>19222000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>17095000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>19803000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>18100000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>18031000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>16103000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>16859000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>16504000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>17816000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>17505000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>17208000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>16566000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>16586000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>15108000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>17110000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>16073000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>15767000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>14573000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>15055000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>15287000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>15218000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>12322000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>13684000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>14163000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>14234000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>13329000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>14119000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>14379000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>14872000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>7975000000</v>
+      </c>
+      <c r="C7">
         <v>7629000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7569000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>7561000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7597000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>7332000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>7290000000</v>
-      </c>
-      <c r="H7">
-        <v>7213000000</v>
       </c>
       <c r="I7">
         <v>7213000000</v>
       </c>
       <c r="J7">
+        <v>7213000000</v>
+      </c>
+      <c r="K7">
         <v>6803000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>6663000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6605000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>6591000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>6240000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>6170000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>6140000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>6124000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5902000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>5786000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5749000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>5775000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>5511000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>5532000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>5481000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>5549000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>5369000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5438000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>5417000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>5389000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>4677000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>4640000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>4654000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>4751000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>4590000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>4559000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>4612000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>4706000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>4598000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>4594000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>4617000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
         <v>2789000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2784000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>3000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>13239000000</v>
+      </c>
+      <c r="C9">
         <v>13285000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>13378000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>13455000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>13519000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>13583000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>13659000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>13729000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>13818000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>13602000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>13656000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>13707000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>13817000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>14040000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>14126000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>14194000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>14263000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>14358000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>14427000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>14536000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>14604000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>14689000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>14724000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>14792000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>14857000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>14996000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>17672000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>17704000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>14717000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>10832000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>10867000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>10841000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>11186000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>10774000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>10505000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>10370000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>10348000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>10534000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>10352000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>10356000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>3744000000</v>
+      </c>
+      <c r="C10">
         <v>3116000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2680000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2688000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2290000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2664000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3377000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3375000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3475000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3198000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3127000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3164000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>3319000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>2912000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3163000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3169000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>3208000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3036000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>3051000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>3084000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>3156000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>5970000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>6332000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>6489000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>6625000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>5850000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>5830000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>5893000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>6068000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>4096000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>4035000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>4024000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>4013000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2954000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3113000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2782000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2850000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>4657000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>4681000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>4750000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>6931000000</v>
+      </c>
+      <c r="C11">
         <v>7040000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>7158000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7416000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7652000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>6907000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7099000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6868000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6826000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6880000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>6587000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6550000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6706000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>6280000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>6281000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>6150000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5178000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>5340000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>5357000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>5449000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>5580000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>5568000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5557000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>5488000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>5667000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>5414000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>5395000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>5377000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>5396000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>4957000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>5019000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>5015000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>4774000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>4931000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>4910000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>4921000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>4955000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>4999000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>4941000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>4985000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>31889000000</v>
+      </c>
+      <c r="C12">
         <v>31070000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>30785000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>31120000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>31058000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>30486000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>31425000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>31185000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>31332000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>30483000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>30033000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>30026000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>30433000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>29472000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>29740000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>29653000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>28773000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>28636000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>28621000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>28818000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>29115000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>31738000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>32145000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>32250000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>32698000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>31629000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>34335000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>34391000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>34731000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>24562000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>24561000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>24534000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>24724000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>23249000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>23087000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>22685000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>22859000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>24788000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>24568000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>24708000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>52880000000</v>
+      </c>
+      <c r="C13">
         <v>52030000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>51758000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>51510000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>50873000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>51843000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>52099000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>51437000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>50710000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>50773000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>49603000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>49248000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>47528000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>49275000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>47840000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>47684000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>44876000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>45495000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>45125000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>46634000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>46620000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>48946000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>48711000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>48836000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>47806000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>48739000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>50408000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>50158000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>49304000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>39617000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>39848000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>39752000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>37046000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>36933000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>37250000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>36919000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>36188000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>38907000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>38947000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>39580000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>2117000000</v>
+      </c>
+      <c r="C14">
         <v>2622000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2309000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2599000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>780000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1520000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1608000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1889000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>880000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1491000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1453000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3166000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1281000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2904000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2611000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3097000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2402000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2691000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2675000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2715000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1467000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2848000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2554000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2718000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1653000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>2840000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>2778000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>2715000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1745000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>2215000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2016000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1945000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1562000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2000000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1956000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1942000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1397000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1928000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2044000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2123000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3075000000</v>
+      </c>
+      <c r="C15">
         <v>3151000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2935000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2671000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3108000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3122000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3029000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2794000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3163000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2818000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2488000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2022000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2466000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2308000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2077000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1861000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2122000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>2165000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2051000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1771000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1785000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1895000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1796000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1647000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1764000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1856000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2012000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1963000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1707000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1947000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1808000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1722000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1824000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1919000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1813000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1722000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1809000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1737000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1688000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1710000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16">
         <v>500000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1106000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6000000</v>
-      </c>
-      <c r="G16">
-        <v>506000000</v>
       </c>
       <c r="H16">
         <v>506000000</v>
       </c>
       <c r="I16">
+        <v>506000000</v>
+      </c>
+      <c r="J16">
         <v>500000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1000000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>500000000</v>
-      </c>
-      <c r="L16">
-        <v>1250000000</v>
       </c>
       <c r="M16">
         <v>1250000000</v>
       </c>
       <c r="N16">
-        <v>900000000</v>
+        <v>1250000000</v>
       </c>
       <c r="O16">
         <v>900000000</v>
       </c>
       <c r="P16">
+        <v>900000000</v>
+      </c>
+      <c r="Q16">
         <v>1300000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1500000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1240000000</v>
-      </c>
-      <c r="S16">
-        <v>750000000</v>
       </c>
       <c r="T16">
         <v>750000000</v>
@@ -2265,926 +2418,950 @@
       <c r="U16">
         <v>750000000</v>
       </c>
-      <c r="AA16">
+      <c r="V16">
+        <v>750000000</v>
+      </c>
+      <c r="AB16">
         <v>502000000</v>
-      </c>
-      <c r="AB16">
-        <v>956000000</v>
       </c>
       <c r="AC16">
         <v>956000000</v>
       </c>
       <c r="AD16">
+        <v>956000000</v>
+      </c>
+      <c r="AE16">
         <v>952000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>452000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>150000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>10695000000</v>
+      </c>
+      <c r="C17">
         <v>10574000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>11235000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>10277000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>10109000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>10378000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>10099000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>9528000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>9390000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>9892000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>10447000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>9214000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>8975000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>9403000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>9544000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>9145000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>8374000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>9108000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>8405000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>8738000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>8911000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>8341000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>9291000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>9232000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>9125000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>9729000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>10303000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>9278000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>8562000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>7866000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>8348000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>7900000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>7726000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>8214000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>8378000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>8331000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>7914000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>8628000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>8521000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>8642000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>15887000000</v>
+      </c>
+      <c r="C18">
         <v>16347000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>16479000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>16047000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>13997000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>15026000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>15242000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>14717000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>13933000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>15201000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>14888000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>15652000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>13972000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>15515000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>15132000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>15403000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>14398000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>15204000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>13881000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>13974000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>12913000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>13084000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>13641000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>13597000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>12542000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>14425000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>15595000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>14912000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>13918000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>12980000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>12624000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>11567000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>11112000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>12133000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>12147000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>11995000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>11120000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>12293000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>12253000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>12625000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>15429000000</v>
+      </c>
+      <c r="C19">
         <v>11480000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>11644000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>11145000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>11670000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>11668000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>11665000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>11657000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>11669000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>11675000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>12174000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>11439000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>11404000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>12652000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>12637000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>12621000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>12604000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>13486000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>13479000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>13473000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>13513000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>14268000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>14283000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>14276000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>14282000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>14304000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>14307000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>14320000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>14305000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>7460000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>7950000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>8404000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>6142000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>6165000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>6169000000</v>
-      </c>
-      <c r="AJ19">
-        <v>6152000000</v>
       </c>
       <c r="AK19">
         <v>6152000000</v>
       </c>
       <c r="AL19">
+        <v>6152000000</v>
+      </c>
+      <c r="AM19">
         <v>6156000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>6140000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>6154000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>5472000000</v>
+      </c>
+      <c r="C20">
         <v>5745000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>5808000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>8143000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>8319000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9351000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>12412000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>12643000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>12874000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>12765000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>12921000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>13078000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>13234000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>12113000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>12114000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>12116000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>12114000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>11392000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>12902000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>14912000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>16422000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>14856000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>14819000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>14769000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>14717000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>12942000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>12889000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>12872000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>12877000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>12456000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>12477000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>12498000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>12515000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>10457000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>10947000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>10340000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>10263000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>15354000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>15985000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>16617000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-3116000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-2680000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-2688000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-2290000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-2664000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-3377000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-3375000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-3475000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-3198000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-3127000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-3164000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-3097000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>6826000000</v>
+      </c>
+      <c r="C22">
         <v>6492000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6395000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>6173000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>5928000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6167000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>6250000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>6087000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>6196000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>6146000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>5834000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>5592000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>5747000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>5058000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>5061000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>5022000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>4311000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>4411000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>4384000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>4386000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>4548000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>4563000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>4619000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>4609000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>4659000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>4638000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>4620000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>4877000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>4902000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>3908000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>3815000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>3763000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>3877000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>3604000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>3668000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>3632000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>3735000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>3827000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>3875000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>3880000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>27727000000</v>
+      </c>
+      <c r="C23">
         <v>23717000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>23847000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>25461000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>25917000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>27186000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>30327000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>30387000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>30739000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>30586000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>30929000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>30109000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>30385000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>29823000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>29812000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>29759000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>29029000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>29289000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>30765000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>32771000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>34483000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>33687000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>33721000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>33654000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>33658000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>31884000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>31816000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>32069000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>32289000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>23824000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>24242000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>24665000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>22534000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>20226000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>20784000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>20124000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>20150000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>25337000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>26000000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>26651000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>43614000000</v>
+      </c>
+      <c r="C24">
         <v>40064000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>40326000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>41508000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>39914000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>42212000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>45569000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>45104000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>44672000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>45787000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>45817000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>45761000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>44357000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>45338000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>44944000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>45162000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>43427000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>44493000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>44646000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>46745000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>47396000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>46771000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>47362000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>47251000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>46200000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>46309000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>47411000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>46981000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>46207000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>36804000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>36866000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>36232000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>33646000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>32359000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>32931000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>32119000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>31270000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>37630000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>38253000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>39276000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>92000000</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3193,25 +3370,25 @@
         <v>0</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>94000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>98000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>122000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>65000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>221000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>90000000</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3225,7 +3402,7 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="P25">
         <v>0</v>
       </c>
       <c r="R25">
@@ -3237,52 +3414,55 @@
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="U25">
         <v>0</v>
       </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>254000000</v>
+      </c>
+      <c r="C26">
         <v>261000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>264000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>265000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>271000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>274000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>276000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>278000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>279000000</v>
-      </c>
-      <c r="J26">
-        <v>278000000</v>
       </c>
       <c r="K26">
         <v>278000000</v>
       </c>
       <c r="L26">
+        <v>278000000</v>
+      </c>
+      <c r="M26">
         <v>279000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>280000000</v>
-      </c>
-      <c r="N26">
-        <v>281000000</v>
       </c>
       <c r="O26">
         <v>281000000</v>
@@ -3294,1048 +3474,1075 @@
         <v>281000000</v>
       </c>
       <c r="R26">
-        <v>283000000</v>
+        <v>281000000</v>
       </c>
       <c r="S26">
         <v>283000000</v>
       </c>
       <c r="T26">
-        <v>284000000</v>
+        <v>283000000</v>
       </c>
       <c r="U26">
         <v>284000000</v>
       </c>
       <c r="V26">
+        <v>284000000</v>
+      </c>
+      <c r="W26">
         <v>285000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>286000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>288000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>289000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>291000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>301000000</v>
-      </c>
-      <c r="AB26">
-        <v>303000000</v>
       </c>
       <c r="AC26">
         <v>303000000</v>
       </c>
       <c r="AD26">
+        <v>303000000</v>
+      </c>
+      <c r="AE26">
         <v>306000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>309000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>313000000</v>
-      </c>
-      <c r="AG26">
-        <v>314000000</v>
       </c>
       <c r="AH26">
         <v>314000000</v>
       </c>
       <c r="AI26">
-        <v>315000000</v>
+        <v>314000000</v>
       </c>
       <c r="AJ26">
         <v>315000000</v>
       </c>
       <c r="AK26">
+        <v>315000000</v>
+      </c>
+      <c r="AL26">
         <v>319000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>318000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>319000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>318000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>16943000000</v>
+      </c>
+      <c r="C27">
         <v>19839000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>19336000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>20716000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>21600000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>21476000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>21961000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>21977000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>21636000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>19844000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>18876000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>18708000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>18401000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>17265000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>16408000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>16278000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>15434000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>14737000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>14528000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>14123000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>11405000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>13173000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>12616000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>13087000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>13324000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>13023000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>13800000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>14128000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>14238000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>13828000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>14129000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>14922000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>14956000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>14124000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>13988000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>13922000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>14200000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>13694000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>13416000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>13268000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>9266000000</v>
+      </c>
+      <c r="C28">
         <v>11966000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>11432000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>10002000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>10959000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>9631000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>6530000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>6333000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>6038000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>4986000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>3786000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3487000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>3171000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3937000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2896000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2522000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1449000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1002000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>479000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-111000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-776000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>2175000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1349000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1585000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1606000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>2430000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>2997000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>3177000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>3097000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>2813000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>2982000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>3520000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>3400000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>4574000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>4319000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>4800000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>4918000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1277000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>694000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>304000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>9266000000</v>
+      </c>
+      <c r="C29">
         <v>11966000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>11432000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>10002000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>10959000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>9631000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6530000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>6333000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>6038000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>4986000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>3786000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>3487000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>3171000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3937000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2896000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>2522000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1449000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1002000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>479000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-111000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-776000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>2175000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1349000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1585000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1606000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>2430000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>2997000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>3177000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>3097000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>2813000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>2982000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>3520000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>3400000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>4574000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>4319000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>4800000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>4918000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1277000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>694000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>304000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>52880000000</v>
+      </c>
+      <c r="C30">
         <v>52030000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>51758000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>51510000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>50873000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>51843000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>52099000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>51437000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>50710000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>50773000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>49603000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>49248000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>47528000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>49275000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>47840000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>47684000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>44876000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>45495000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>45125000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>46634000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>46620000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>48946000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>48711000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>48836000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>47806000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>48739000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>50408000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>50158000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>49304000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>39617000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>39848000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>39752000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>37046000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>36933000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>37250000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>36919000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>36188000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>38907000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>38947000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>39580000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>254000000</v>
+      </c>
+      <c r="C31">
         <v>262074000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>265152000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>265000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>272327000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>275786000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>276916000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>277934000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>279000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>279784000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>279542000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>280435000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>280000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>282071000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>282398000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>282539000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>281000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>284426000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>284781000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>285529000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>284000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>286734000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>287991000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>289443000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>289000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>292977000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>303000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>304000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>303000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>307000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>310535000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>314761000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>314000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>316000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>317388000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>317377000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>319000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>320307000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>320937000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>320405000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>-3973000000</v>
+      </c>
+      <c r="C32">
         <v>-1319000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-1946000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-3453000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-2560000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-3952000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-7129000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-7396000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-7780000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-8616000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-9870000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-10220000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-10646000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-10103000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-11230000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-11672000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-12814000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-13356000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-13948000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-14647000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-15380000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-12514000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-13375000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-13207000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-13251000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-12566000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-14675000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-14527000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-11620000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-8019000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-7885000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-7321000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-7786000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-6200000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-6186000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-5570000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-5430000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-9257000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-9658000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-10052000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>12882000000</v>
+      </c>
+      <c r="C33">
         <v>9050000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>9869000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>9762000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>9172000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>8947000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>9426000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>9230000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>9009000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>9090000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>9819000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>10701000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>11140000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>11013000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>12370000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>12930000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>13332000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>13829000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>13048000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>11830000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>11402000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>11327000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>11831000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>12060000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>12445000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>11409000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>13540000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>13824000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>14171000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>5112000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>5200000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>4918000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>4696000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>3202000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>2733000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>2888000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>3535000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>3495000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>3295000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>3239000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>15429000000</v>
+      </c>
+      <c r="C34">
         <v>11480000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>11644000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>11645000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>12776000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>11674000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>12171000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>12163000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>12169000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>12675000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>12674000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>12689000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>12654000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>13552000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>13537000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>13921000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>14104000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>14726000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>14229000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>14223000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>14263000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>14268000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>14283000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>14276000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>14282000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>14304000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>14809000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>15276000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>15261000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>8412000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>8402000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>8404000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>6142000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>6165000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>6169000000</v>
-      </c>
-      <c r="AJ34">
-        <v>6152000000</v>
       </c>
       <c r="AK34">
         <v>6152000000</v>
       </c>
       <c r="AL34">
+        <v>6152000000</v>
+      </c>
+      <c r="AM34">
         <v>6156000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>6140000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>6304000000</v>
       </c>
     </row>
